--- a/SP_298K.xlsx
+++ b/SP_298K.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sbasa\Documents\GitHub\Chemical_reaction_engineering\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBB278A2-6D6F-487D-87C3-1CD8E9DB454A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFAA086A-5DD0-4BCF-82EC-0433438FC874}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="408" uniqueCount="335">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="409" uniqueCount="336">
   <si>
     <t>Species</t>
   </si>
@@ -8294,6 +8294,9 @@
       </rPr>
       <t>(s)</t>
     </r>
+  </si>
+  <si>
+    <t>C2H4O(g)</t>
   </si>
 </sst>
 </file>
@@ -8764,10 +8767,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2DBF9F76-66E8-4424-B2ED-84DC82C16B6B}">
-  <dimension ref="A1:J203"/>
+  <dimension ref="A1:J204"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A159" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:D203"/>
+    <sheetView tabSelected="1" topLeftCell="A198" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A204" sqref="A204"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.35"/>
@@ -11581,6 +11584,20 @@
       </c>
       <c r="D203" s="10">
         <v>-201.29</v>
+      </c>
+    </row>
+    <row r="204" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A204" s="2" t="s">
+        <v>335</v>
+      </c>
+      <c r="B204" s="3">
+        <v>-166.2</v>
+      </c>
+      <c r="C204" s="3">
+        <v>218.7</v>
+      </c>
+      <c r="D204" s="3">
+        <v>-133.19999999999999</v>
       </c>
     </row>
   </sheetData>
